--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il15-Il2rg.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il15-Il2rg.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.877553333333334</v>
+        <v>5.336433666666667</v>
       </c>
       <c r="H2">
-        <v>14.63266</v>
+        <v>16.009301</v>
       </c>
       <c r="I2">
-        <v>0.1208715196837975</v>
+        <v>0.09554123656860429</v>
       </c>
       <c r="J2">
-        <v>0.1236817629204971</v>
+        <v>0.09601942232049432</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>30.93277266666666</v>
+        <v>38.940166</v>
       </c>
       <c r="N2">
-        <v>92.79831799999999</v>
+        <v>116.820498</v>
       </c>
       <c r="O2">
-        <v>0.1605730793731885</v>
+        <v>0.1629440517615001</v>
       </c>
       <c r="P2">
-        <v>0.1647388399493432</v>
+        <v>0.1644242630434466</v>
       </c>
       <c r="Q2">
-        <v>150.8762484295422</v>
+        <v>207.8016128279887</v>
       </c>
       <c r="R2">
-        <v>1357.88623586588</v>
+        <v>1870.214515451898</v>
       </c>
       <c r="S2">
-        <v>0.01940871212414432</v>
+        <v>0.01556787619679239</v>
       </c>
       <c r="T2">
-        <v>0.02037519014641238</v>
+        <v>0.01578792275290474</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.877553333333334</v>
+        <v>5.336433666666667</v>
       </c>
       <c r="H3">
-        <v>14.63266</v>
+        <v>16.009301</v>
       </c>
       <c r="I3">
-        <v>0.1208715196837975</v>
+        <v>0.09554123656860429</v>
       </c>
       <c r="J3">
-        <v>0.1236817629204971</v>
+        <v>0.09601942232049432</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,25 +623,25 @@
         <v>2.595096</v>
       </c>
       <c r="N3">
-        <v>7.785288000000001</v>
+        <v>7.785288</v>
       </c>
       <c r="O3">
-        <v>0.01347123196744937</v>
+        <v>0.01085910771284493</v>
       </c>
       <c r="P3">
-        <v>0.01382071724394339</v>
+        <v>0.01095775368104481</v>
       </c>
       <c r="Q3">
-        <v>12.65771914512</v>
+        <v>13.848557662632</v>
       </c>
       <c r="R3">
-        <v>113.91947230608</v>
+        <v>124.637018963688</v>
       </c>
       <c r="S3">
-        <v>0.001628288279918558</v>
+        <v>0.001037492578916873</v>
       </c>
       <c r="T3">
-        <v>0.001709370673556633</v>
+        <v>0.001052157178384193</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.877553333333334</v>
+        <v>5.336433666666667</v>
       </c>
       <c r="H4">
-        <v>14.63266</v>
+        <v>16.009301</v>
       </c>
       <c r="I4">
-        <v>0.1208715196837975</v>
+        <v>0.09554123656860429</v>
       </c>
       <c r="J4">
-        <v>0.1236817629204971</v>
+        <v>0.09601942232049432</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>79.25187200000001</v>
+        <v>115.357885</v>
       </c>
       <c r="N4">
-        <v>237.755616</v>
+        <v>346.073655</v>
       </c>
       <c r="O4">
-        <v>0.411399174275867</v>
+        <v>0.4827118914833898</v>
       </c>
       <c r="P4">
-        <v>0.4220721368169787</v>
+        <v>0.487096927819354</v>
       </c>
       <c r="Q4">
-        <v>386.5552324465067</v>
+        <v>615.5997012294617</v>
       </c>
       <c r="R4">
-        <v>3478.997092018561</v>
+        <v>5540.397311065155</v>
       </c>
       <c r="S4">
-        <v>0.04972644339138348</v>
+        <v>0.04611889101869299</v>
       </c>
       <c r="T4">
-        <v>0.05220262596114519</v>
+        <v>0.04677076562330189</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.877553333333334</v>
+        <v>5.336433666666667</v>
       </c>
       <c r="H5">
-        <v>14.63266</v>
+        <v>16.009301</v>
       </c>
       <c r="I5">
-        <v>0.1208715196837975</v>
+        <v>0.09554123656860429</v>
       </c>
       <c r="J5">
-        <v>0.1236817629204971</v>
+        <v>0.09601942232049432</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.6138845</v>
+        <v>6.4541395</v>
       </c>
       <c r="N5">
-        <v>29.227769</v>
+        <v>12.908279</v>
       </c>
       <c r="O5">
-        <v>0.07586117355389273</v>
+        <v>0.02700716891561127</v>
       </c>
       <c r="P5">
-        <v>0.05188616413680444</v>
+        <v>0.01816833773242602</v>
       </c>
       <c r="Q5">
-        <v>71.28000105592335</v>
+        <v>34.44208731716317</v>
       </c>
       <c r="R5">
-        <v>427.68000633554</v>
+        <v>206.652523902979</v>
       </c>
       <c r="S5">
-        <v>0.009169455332455322</v>
+        <v>0.002580298314414673</v>
       </c>
       <c r="T5">
-        <v>0.006417372251622248</v>
+        <v>0.001744513293591186</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.877553333333334</v>
+        <v>5.336433666666667</v>
       </c>
       <c r="H6">
-        <v>14.63266</v>
+        <v>16.009301</v>
       </c>
       <c r="I6">
-        <v>0.1208715196837975</v>
+        <v>0.09554123656860429</v>
       </c>
       <c r="J6">
-        <v>0.1236817629204971</v>
+        <v>0.09601942232049432</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>65.246217</v>
+        <v>75.63146466666666</v>
       </c>
       <c r="N6">
-        <v>195.738651</v>
+        <v>226.894394</v>
       </c>
       <c r="O6">
-        <v>0.3386953408296026</v>
+        <v>0.3164777801266539</v>
       </c>
       <c r="P6">
-        <v>0.3474821418529304</v>
+        <v>0.3193527177237286</v>
       </c>
       <c r="Q6">
-        <v>318.2419032157401</v>
+        <v>403.6022943065104</v>
       </c>
       <c r="R6">
-        <v>2864.17712894166</v>
+        <v>3632.420648758594</v>
       </c>
       <c r="S6">
-        <v>0.0409386205558958</v>
+        <v>0.03023667845978737</v>
       </c>
       <c r="T6">
-        <v>0.04297720388776069</v>
+        <v>0.03066406347231231</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>10.949652</v>
       </c>
       <c r="I7">
-        <v>0.09044842682388111</v>
+        <v>0.0653459693259494</v>
       </c>
       <c r="J7">
-        <v>0.09255133808384444</v>
+        <v>0.06567302717654226</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>30.93277266666666</v>
+        <v>38.940166</v>
       </c>
       <c r="N7">
-        <v>92.79831799999999</v>
+        <v>116.820498</v>
       </c>
       <c r="O7">
-        <v>0.1605730793731885</v>
+        <v>0.1629440517615001</v>
       </c>
       <c r="P7">
-        <v>0.1647388399493432</v>
+        <v>0.1644242630434466</v>
       </c>
       <c r="Q7">
-        <v>112.901032031704</v>
+        <v>142.127088840744</v>
       </c>
       <c r="R7">
-        <v>1016.109288285336</v>
+        <v>1279.143799566696</v>
       </c>
       <c r="S7">
-        <v>0.01452358241957109</v>
+        <v>0.0106477370082529</v>
       </c>
       <c r="T7">
-        <v>0.015246800071692</v>
+        <v>0.0107982390953352</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>10.949652</v>
       </c>
       <c r="I8">
-        <v>0.09044842682388111</v>
+        <v>0.0653459693259494</v>
       </c>
       <c r="J8">
-        <v>0.09255133808384444</v>
+        <v>0.06567302717654226</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,25 +933,25 @@
         <v>2.595096</v>
       </c>
       <c r="N8">
-        <v>7.785288000000001</v>
+        <v>7.785288</v>
       </c>
       <c r="O8">
-        <v>0.01347123196744937</v>
+        <v>0.01085910771284493</v>
       </c>
       <c r="P8">
-        <v>0.01382071724394339</v>
+        <v>0.01095775368104481</v>
       </c>
       <c r="Q8">
         <v>9.471799368864001</v>
       </c>
       <c r="R8">
-        <v>85.24619431977602</v>
+        <v>85.24619431977601</v>
       </c>
       <c r="S8">
-        <v>0.001218451738835372</v>
+        <v>0.0007095989195107455</v>
       </c>
       <c r="T8">
-        <v>0.001279125874205423</v>
+        <v>0.0007196288552891121</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>10.949652</v>
       </c>
       <c r="I9">
-        <v>0.09044842682388111</v>
+        <v>0.0653459693259494</v>
       </c>
       <c r="J9">
-        <v>0.09255133808384444</v>
+        <v>0.06567302717654226</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>79.25187200000001</v>
+        <v>115.357885</v>
       </c>
       <c r="N9">
-        <v>237.755616</v>
+        <v>346.073655</v>
       </c>
       <c r="O9">
-        <v>0.411399174275867</v>
+        <v>0.4827118914833898</v>
       </c>
       <c r="P9">
-        <v>0.4220721368169787</v>
+        <v>0.487096927819354</v>
       </c>
       <c r="Q9">
-        <v>289.260139582848</v>
+        <v>421.04289873534</v>
       </c>
       <c r="R9">
-        <v>2603.341256245632</v>
+        <v>3789.38608861806</v>
       </c>
       <c r="S9">
-        <v>0.03721040810989587</v>
+        <v>0.0315432764541446</v>
       </c>
       <c r="T9">
-        <v>0.03906334103031884</v>
+        <v>0.03198912977829068</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>10.949652</v>
       </c>
       <c r="I10">
-        <v>0.09044842682388111</v>
+        <v>0.0653459693259494</v>
       </c>
       <c r="J10">
-        <v>0.09255133808384444</v>
+        <v>0.06567302717654226</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.6138845</v>
+        <v>6.4541395</v>
       </c>
       <c r="N10">
-        <v>29.227769</v>
+        <v>12.908279</v>
       </c>
       <c r="O10">
-        <v>0.07586117355389273</v>
+        <v>0.02700716891561127</v>
       </c>
       <c r="P10">
-        <v>0.05188616413680444</v>
+        <v>0.01816833773242602</v>
       </c>
       <c r="Q10">
-        <v>53.33898321439801</v>
+        <v>23.556860494818</v>
       </c>
       <c r="R10">
-        <v>320.033899286388</v>
+        <v>141.341162968908</v>
       </c>
       <c r="S10">
-        <v>0.006861523804963012</v>
+        <v>0.001764809631540268</v>
       </c>
       <c r="T10">
-        <v>0.004802133918899233</v>
+        <v>0.001193169737654212</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>10.949652</v>
       </c>
       <c r="I11">
-        <v>0.09044842682388111</v>
+        <v>0.0653459693259494</v>
       </c>
       <c r="J11">
-        <v>0.09255133808384444</v>
+        <v>0.06567302717654226</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>65.246217</v>
+        <v>75.63146466666666</v>
       </c>
       <c r="N11">
-        <v>195.738651</v>
+        <v>226.894394</v>
       </c>
       <c r="O11">
-        <v>0.3386953408296026</v>
+        <v>0.3164777801266539</v>
       </c>
       <c r="P11">
-        <v>0.3474821418529304</v>
+        <v>0.3193527177237286</v>
       </c>
       <c r="Q11">
-        <v>238.141123488828</v>
+        <v>276.046072783432</v>
       </c>
       <c r="R11">
-        <v>2143.270111399452</v>
+        <v>2484.414655050888</v>
       </c>
       <c r="S11">
-        <v>0.03063446075061578</v>
+        <v>0.02068054731250088</v>
       </c>
       <c r="T11">
-        <v>0.03215993718872895</v>
+        <v>0.02097285970997306</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>16.89730566666667</v>
+        <v>22.33109633333333</v>
       </c>
       <c r="H12">
-        <v>50.691917</v>
+        <v>66.993289</v>
       </c>
       <c r="I12">
-        <v>0.4187351475039348</v>
+        <v>0.3998064420712607</v>
       </c>
       <c r="J12">
-        <v>0.428470671797166</v>
+        <v>0.4018074811092581</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.93277266666666</v>
+        <v>38.940166</v>
       </c>
       <c r="N12">
-        <v>92.79831799999999</v>
+        <v>116.820498</v>
       </c>
       <c r="O12">
-        <v>0.1605730793731885</v>
+        <v>0.1629440517615001</v>
       </c>
       <c r="P12">
-        <v>0.1647388399493432</v>
+        <v>0.1644242630434466</v>
       </c>
       <c r="Q12">
-        <v>522.6805148661784</v>
+        <v>869.5765981819914</v>
       </c>
       <c r="R12">
-        <v>4704.124633795606</v>
+        <v>7826.189383637922</v>
       </c>
       <c r="S12">
-        <v>0.06723759207649312</v>
+        <v>0.06514608159144071</v>
       </c>
       <c r="T12">
-        <v>0.07058576142418087</v>
+        <v>0.06606689896673335</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>16.89730566666667</v>
+        <v>22.33109633333333</v>
       </c>
       <c r="H13">
-        <v>50.691917</v>
+        <v>66.993289</v>
       </c>
       <c r="I13">
-        <v>0.4187351475039348</v>
+        <v>0.3998064420712607</v>
       </c>
       <c r="J13">
-        <v>0.428470671797166</v>
+        <v>0.4018074811092581</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,25 +1243,25 @@
         <v>2.595096</v>
       </c>
       <c r="N13">
-        <v>7.785288000000001</v>
+        <v>7.785288</v>
       </c>
       <c r="O13">
-        <v>0.01347123196744937</v>
+        <v>0.01085910771284493</v>
       </c>
       <c r="P13">
-        <v>0.01382071724394339</v>
+        <v>0.01095775368104481</v>
       </c>
       <c r="Q13">
-        <v>43.85013034634401</v>
+        <v>57.95133877024801</v>
       </c>
       <c r="R13">
-        <v>394.6511731170961</v>
+        <v>521.5620489322321</v>
       </c>
       <c r="S13">
-        <v>0.005640878304949633</v>
+        <v>0.004341541218741118</v>
       </c>
       <c r="T13">
-        <v>0.005921772002231099</v>
+        <v>0.004402907405196318</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>16.89730566666667</v>
+        <v>22.33109633333333</v>
       </c>
       <c r="H14">
-        <v>50.691917</v>
+        <v>66.993289</v>
       </c>
       <c r="I14">
-        <v>0.4187351475039348</v>
+        <v>0.3998064420712607</v>
       </c>
       <c r="J14">
-        <v>0.428470671797166</v>
+        <v>0.4018074811092581</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>79.25187200000001</v>
+        <v>115.357885</v>
       </c>
       <c r="N14">
-        <v>237.755616</v>
+        <v>346.073655</v>
       </c>
       <c r="O14">
-        <v>0.411399174275867</v>
+        <v>0.4827118914833898</v>
       </c>
       <c r="P14">
-        <v>0.4220721368169787</v>
+        <v>0.487096927819354</v>
       </c>
       <c r="Q14">
-        <v>1339.143105839541</v>
+        <v>2576.068042744588</v>
       </c>
       <c r="R14">
-        <v>12052.28795255587</v>
+        <v>23184.61238470129</v>
       </c>
       <c r="S14">
-        <v>0.1722672939234021</v>
+        <v>0.1929913238794626</v>
       </c>
       <c r="T14">
-        <v>0.1808455320088362</v>
+        <v>0.1957191896231527</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>16.89730566666667</v>
+        <v>22.33109633333333</v>
       </c>
       <c r="H15">
-        <v>50.691917</v>
+        <v>66.993289</v>
       </c>
       <c r="I15">
-        <v>0.4187351475039348</v>
+        <v>0.3998064420712607</v>
       </c>
       <c r="J15">
-        <v>0.428470671797166</v>
+        <v>0.4018074811092581</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>14.6138845</v>
+        <v>6.4541395</v>
       </c>
       <c r="N15">
-        <v>29.227769</v>
+        <v>12.908279</v>
       </c>
       <c r="O15">
-        <v>0.07586117355389273</v>
+        <v>0.02700716891561127</v>
       </c>
       <c r="P15">
-        <v>0.05188616413680444</v>
+        <v>0.01816833773242602</v>
       </c>
       <c r="Q15">
-        <v>246.9352733738622</v>
+        <v>144.1280109232719</v>
       </c>
       <c r="R15">
-        <v>1481.611640243173</v>
+        <v>864.768065539631</v>
       </c>
       <c r="S15">
-        <v>0.03176573969791087</v>
+        <v>0.01079764011456809</v>
       </c>
       <c r="T15">
-        <v>0.02223169960467462</v>
+        <v>0.007300174020208387</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>16.89730566666667</v>
+        <v>22.33109633333333</v>
       </c>
       <c r="H16">
-        <v>50.691917</v>
+        <v>66.993289</v>
       </c>
       <c r="I16">
-        <v>0.4187351475039348</v>
+        <v>0.3998064420712607</v>
       </c>
       <c r="J16">
-        <v>0.428470671797166</v>
+        <v>0.4018074811092581</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>65.246217</v>
+        <v>75.63146466666666</v>
       </c>
       <c r="N16">
-        <v>195.738651</v>
+        <v>226.894394</v>
       </c>
       <c r="O16">
-        <v>0.3386953408296026</v>
+        <v>0.3164777801266539</v>
       </c>
       <c r="P16">
-        <v>0.3474821418529304</v>
+        <v>0.3193527177237286</v>
       </c>
       <c r="Q16">
-        <v>1102.485272242663</v>
+        <v>1688.933523302429</v>
       </c>
       <c r="R16">
-        <v>9922.367450183969</v>
+        <v>15200.40170972187</v>
       </c>
       <c r="S16">
-        <v>0.1418236435011791</v>
+        <v>0.1265298552670482</v>
       </c>
       <c r="T16">
-        <v>0.1488859067572432</v>
+        <v>0.1283183110939673</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.750664</v>
+        <v>0.8344860000000001</v>
       </c>
       <c r="H17">
-        <v>5.501328</v>
+        <v>1.668972</v>
       </c>
       <c r="I17">
-        <v>0.06816469551390787</v>
+        <v>0.01494028209086487</v>
       </c>
       <c r="J17">
-        <v>0.04649967575573358</v>
+        <v>0.01001003899602363</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>30.93277266666666</v>
+        <v>38.940166</v>
       </c>
       <c r="N17">
-        <v>92.79831799999999</v>
+        <v>116.820498</v>
       </c>
       <c r="O17">
-        <v>0.1605730793731885</v>
+        <v>0.1629440517615001</v>
       </c>
       <c r="P17">
-        <v>0.1647388399493432</v>
+        <v>0.1644242630434466</v>
       </c>
       <c r="Q17">
-        <v>85.08566419438399</v>
+        <v>32.495023364676</v>
       </c>
       <c r="R17">
-        <v>510.513985166304</v>
+        <v>194.970140188056</v>
       </c>
       <c r="S17">
-        <v>0.01094541506320395</v>
+        <v>0.002434430098345298</v>
       </c>
       <c r="T17">
-        <v>0.007660302642020147</v>
+        <v>0.001645893284957347</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.750664</v>
+        <v>0.8344860000000001</v>
       </c>
       <c r="H18">
-        <v>5.501328</v>
+        <v>1.668972</v>
       </c>
       <c r="I18">
-        <v>0.06816469551390787</v>
+        <v>0.01494028209086487</v>
       </c>
       <c r="J18">
-        <v>0.04649967575573358</v>
+        <v>0.01001003899602363</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,25 +1553,25 @@
         <v>2.595096</v>
       </c>
       <c r="N18">
-        <v>7.785288000000001</v>
+        <v>7.785288</v>
       </c>
       <c r="O18">
-        <v>0.01347123196744937</v>
+        <v>0.01085910771284493</v>
       </c>
       <c r="P18">
-        <v>0.01382071724394339</v>
+        <v>0.01095775368104481</v>
       </c>
       <c r="Q18">
-        <v>7.138237143744001</v>
+        <v>2.165571280656001</v>
       </c>
       <c r="R18">
-        <v>42.82942286246401</v>
+        <v>12.993427683936</v>
       </c>
       <c r="S18">
-        <v>0.0009182624252584082</v>
+        <v>0.0001622381324849897</v>
       </c>
       <c r="T18">
-        <v>0.0006426588705550435</v>
+        <v>0.00010968754165608</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.750664</v>
+        <v>0.8344860000000001</v>
       </c>
       <c r="H19">
-        <v>5.501328</v>
+        <v>1.668972</v>
       </c>
       <c r="I19">
-        <v>0.06816469551390787</v>
+        <v>0.01494028209086487</v>
       </c>
       <c r="J19">
-        <v>0.04649967575573358</v>
+        <v>0.01001003899602363</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>79.25187200000001</v>
+        <v>115.357885</v>
       </c>
       <c r="N19">
-        <v>237.755616</v>
+        <v>346.073655</v>
       </c>
       <c r="O19">
-        <v>0.411399174275867</v>
+        <v>0.4827118914833898</v>
       </c>
       <c r="P19">
-        <v>0.4220721368169787</v>
+        <v>0.487096927819354</v>
       </c>
       <c r="Q19">
-        <v>217.995271243008</v>
+        <v>96.26454002211</v>
       </c>
       <c r="R19">
-        <v>1307.971627458048</v>
+        <v>577.58724013266</v>
       </c>
       <c r="S19">
-        <v>0.02804289944918759</v>
+        <v>0.007211851827376792</v>
       </c>
       <c r="T19">
-        <v>0.01962621750751913</v>
+        <v>0.004875859242315039</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.750664</v>
+        <v>0.8344860000000001</v>
       </c>
       <c r="H20">
-        <v>5.501328</v>
+        <v>1.668972</v>
       </c>
       <c r="I20">
-        <v>0.06816469551390787</v>
+        <v>0.01494028209086487</v>
       </c>
       <c r="J20">
-        <v>0.04649967575573358</v>
+        <v>0.01001003899602363</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.6138845</v>
+        <v>6.4541395</v>
       </c>
       <c r="N20">
-        <v>29.227769</v>
+        <v>12.908279</v>
       </c>
       <c r="O20">
-        <v>0.07586117355389273</v>
+        <v>0.02700716891561127</v>
       </c>
       <c r="P20">
-        <v>0.05188616413680444</v>
+        <v>0.01816833773242602</v>
       </c>
       <c r="Q20">
-        <v>40.197885994308</v>
+        <v>5.385889054797</v>
       </c>
       <c r="R20">
-        <v>160.791543977232</v>
+        <v>21.543556219188</v>
       </c>
       <c r="S20">
-        <v>0.005171053796628818</v>
+        <v>0.0004034947220748693</v>
       </c>
       <c r="T20">
-        <v>0.002412689808570179</v>
+        <v>0.0001818657691945119</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.750664</v>
+        <v>0.8344860000000001</v>
       </c>
       <c r="H21">
-        <v>5.501328</v>
+        <v>1.668972</v>
       </c>
       <c r="I21">
-        <v>0.06816469551390787</v>
+        <v>0.01494028209086487</v>
       </c>
       <c r="J21">
-        <v>0.04649967575573358</v>
+        <v>0.01001003899602363</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>65.246217</v>
+        <v>75.63146466666666</v>
       </c>
       <c r="N21">
-        <v>195.738651</v>
+        <v>226.894394</v>
       </c>
       <c r="O21">
-        <v>0.3386953408296026</v>
+        <v>0.3164777801266539</v>
       </c>
       <c r="P21">
-        <v>0.3474821418529304</v>
+        <v>0.3193527177237286</v>
       </c>
       <c r="Q21">
-        <v>179.470420238088</v>
+        <v>63.113398423828</v>
       </c>
       <c r="R21">
-        <v>1076.822521428528</v>
+        <v>378.680390542968</v>
       </c>
       <c r="S21">
-        <v>0.02308706477962911</v>
+        <v>0.004728267310582916</v>
       </c>
       <c r="T21">
-        <v>0.01615780692706908</v>
+        <v>0.003196733157900649</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>12.177799</v>
+        <v>23.70286866666666</v>
       </c>
       <c r="H22">
-        <v>36.533397</v>
+        <v>71.10860599999999</v>
       </c>
       <c r="I22">
-        <v>0.3017802104744788</v>
+        <v>0.4243660699433207</v>
       </c>
       <c r="J22">
-        <v>0.3087965514427589</v>
+        <v>0.4264900303976816</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>30.93277266666666</v>
+        <v>38.940166</v>
       </c>
       <c r="N22">
-        <v>92.79831799999999</v>
+        <v>116.820498</v>
       </c>
       <c r="O22">
-        <v>0.1605730793731885</v>
+        <v>0.1629440517615001</v>
       </c>
       <c r="P22">
-        <v>0.1647388399493432</v>
+        <v>0.1644242630434466</v>
       </c>
       <c r="Q22">
-        <v>376.6930880473607</v>
+        <v>922.9936405561986</v>
       </c>
       <c r="R22">
-        <v>3390.237792426246</v>
+        <v>8306.942765005788</v>
       </c>
       <c r="S22">
-        <v>0.04845777768977601</v>
+        <v>0.06914792686666883</v>
       </c>
       <c r="T22">
-        <v>0.05087078566503777</v>
+        <v>0.07012530894351594</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>12.177799</v>
+        <v>23.70286866666666</v>
       </c>
       <c r="H23">
-        <v>36.533397</v>
+        <v>71.10860599999999</v>
       </c>
       <c r="I23">
-        <v>0.3017802104744788</v>
+        <v>0.4243660699433207</v>
       </c>
       <c r="J23">
-        <v>0.3087965514427589</v>
+        <v>0.4264900303976816</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,25 +1863,25 @@
         <v>2.595096</v>
       </c>
       <c r="N23">
-        <v>7.785288000000001</v>
+        <v>7.785288</v>
       </c>
       <c r="O23">
-        <v>0.01347123196744937</v>
+        <v>0.01085910771284493</v>
       </c>
       <c r="P23">
-        <v>0.01382071724394339</v>
+        <v>0.01095775368104481</v>
       </c>
       <c r="Q23">
-        <v>31.602557473704</v>
+        <v>61.511219665392</v>
       </c>
       <c r="R23">
-        <v>284.4230172633361</v>
+        <v>553.600976988528</v>
       </c>
       <c r="S23">
-        <v>0.004065351218487397</v>
+        <v>0.004608236863191206</v>
       </c>
       <c r="T23">
-        <v>0.00426778982339519</v>
+        <v>0.004673372700519111</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>12.177799</v>
+        <v>23.70286866666666</v>
       </c>
       <c r="H24">
-        <v>36.533397</v>
+        <v>71.10860599999999</v>
       </c>
       <c r="I24">
-        <v>0.3017802104744788</v>
+        <v>0.4243660699433207</v>
       </c>
       <c r="J24">
-        <v>0.3087965514427589</v>
+        <v>0.4264900303976816</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>79.25187200000001</v>
+        <v>115.357885</v>
       </c>
       <c r="N24">
-        <v>237.755616</v>
+        <v>346.073655</v>
       </c>
       <c r="O24">
-        <v>0.411399174275867</v>
+        <v>0.4827118914833898</v>
       </c>
       <c r="P24">
-        <v>0.4220721368169787</v>
+        <v>0.487096927819354</v>
       </c>
       <c r="Q24">
-        <v>965.1133675897281</v>
+        <v>2734.312797819436</v>
       </c>
       <c r="R24">
-        <v>8686.020308307554</v>
+        <v>24608.81518037493</v>
       </c>
       <c r="S24">
-        <v>0.1241521294019979</v>
+        <v>0.2048465483037128</v>
       </c>
       <c r="T24">
-        <v>0.1303344203091593</v>
+        <v>0.2077419835522936</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>12.177799</v>
+        <v>23.70286866666666</v>
       </c>
       <c r="H25">
-        <v>36.533397</v>
+        <v>71.10860599999999</v>
       </c>
       <c r="I25">
-        <v>0.3017802104744788</v>
+        <v>0.4243660699433207</v>
       </c>
       <c r="J25">
-        <v>0.3087965514427589</v>
+        <v>0.4264900303976816</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>14.6138845</v>
+        <v>6.4541395</v>
       </c>
       <c r="N25">
-        <v>29.227769</v>
+        <v>12.908279</v>
       </c>
       <c r="O25">
-        <v>0.07586117355389273</v>
+        <v>0.02700716891561127</v>
       </c>
       <c r="P25">
-        <v>0.05188616413680444</v>
+        <v>0.01816833773242602</v>
       </c>
       <c r="Q25">
-        <v>177.9649480502155</v>
+        <v>152.9816209248457</v>
       </c>
       <c r="R25">
-        <v>1067.789688301293</v>
+        <v>917.889725549074</v>
       </c>
       <c r="S25">
-        <v>0.02289340092193471</v>
+        <v>0.01146092613301337</v>
       </c>
       <c r="T25">
-        <v>0.01602226855303817</v>
+        <v>0.007748614911777718</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>12.177799</v>
+        <v>23.70286866666666</v>
       </c>
       <c r="H26">
-        <v>36.533397</v>
+        <v>71.10860599999999</v>
       </c>
       <c r="I26">
-        <v>0.3017802104744788</v>
+        <v>0.4243660699433207</v>
       </c>
       <c r="J26">
-        <v>0.3087965514427589</v>
+        <v>0.4264900303976816</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>65.246217</v>
+        <v>75.63146466666666</v>
       </c>
       <c r="N26">
-        <v>195.738651</v>
+        <v>226.894394</v>
       </c>
       <c r="O26">
-        <v>0.3386953408296026</v>
+        <v>0.3164777801266539</v>
       </c>
       <c r="P26">
-        <v>0.3474821418529304</v>
+        <v>0.3193527177237286</v>
       </c>
       <c r="Q26">
-        <v>794.555316136383</v>
+        <v>1792.68267406164</v>
       </c>
       <c r="R26">
-        <v>7150.997845227447</v>
+        <v>16134.14406655476</v>
       </c>
       <c r="S26">
-        <v>0.1022115512422828</v>
+        <v>0.1343024317767345</v>
       </c>
       <c r="T26">
-        <v>0.1073012870921285</v>
+        <v>0.1362007502895753</v>
       </c>
     </row>
   </sheetData>
